--- a/Training/Objects.xlsx
+++ b/Training/Objects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD164E17-E7CC-A540-947F-6F7B2D745F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D724E8C-347B-7C48-9150-217661C2D2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePage" sheetId="1" r:id="rId1"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F42F08-1590-8B48-B28D-605BAB0DB05E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,9 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC72973-1E51-CF4F-9D97-542BFABAD05E}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Training/Objects.xlsx
+++ b/Training/Objects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D724E8C-347B-7C48-9150-217661C2D2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF18B32-C2C2-5343-87F1-91DA715C8C1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePage" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC72973-1E51-CF4F-9D97-542BFABAD05E}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
